--- a/biology/Zoologie/Ekmania/Ekmania.xlsx
+++ b/biology/Zoologie/Ekmania/Ekmania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekmania est un genre d'holothuries (concombres de mer) de la famille des Cucumariidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ekmania a été créé en 1991 par Bent Hansen (d) (1925-1988)[2] et J. Douglas McKenzie (d)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ekmania a été créé en 1991 par Bent Hansen (d) (1925-1988) et J. Douglas McKenzie (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (25 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 juillet 2021) :
 Ekmania barthii (Troschel, 1846)
 Ekmania cylindricus (Ohshima, 1915)
 Ekmania diomedeae (Ohshima, 1915)
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Bent Hansen et J. Douglas McKenzie, « A taxonomic review of Northern Atlantic species of Thyonidiinae and Semperiellinae (Echinodermata: Holothuroidea: Dendrochirotida) », Zoological Journal of the Linnean Society, Linnean Society of London et OUP, vol. 103, no 2,‎ octobre 1991, p. 101-127 (ISSN 1096-3642 et 0024-4082, OCLC 01799617, DOI 10.1111/J.1096-3642.1991.TB00899.X)</t>
         </is>
